--- a/Docs/iSYE 6202 & 6335 2025 Casework 3 FaMoaSa  Facility Design - Tables and Basic Layouts.xlsx
+++ b/Docs/iSYE 6202 & 6335 2025 Casework 3 FaMoaSa  Facility Design - Tables and Basic Layouts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/bmontreuil6_gatech_edu/Documents/Courses/ISYE 6202 Supply Chain Facilities/Caseworks/Fall 2025 Caseworks/Fall 2025 Casework 3 - FeMoaSa Facility Organization Design Testbed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GT\ISYE6202_Warehousing\CW3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{5F02BE1D-82D6-3D49-80A7-BD0C4A7B1AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F091087-4AB8-F04A-B763-5B0BAAD7E942}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C7938-DCF8-47FA-83AF-7DC16B1D8045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="760" windowWidth="29140" windowHeight="20900" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="+1 Year Product Demand" sheetId="4" r:id="rId1"/>
@@ -292,7 +292,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -302,7 +302,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,22 +513,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -536,7 +536,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -544,7 +544,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -552,7 +552,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -560,35 +560,35 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -596,8 +596,15 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1385,7 +1392,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1611,7 +1618,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1716,10 +1723,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -1784,10 +1791,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1829,12 +1836,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="4" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="4" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="4" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="4" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1882,6 +1889,24 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1933,6 +1958,195 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1960,24 +2174,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2032,12 +2228,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2056,15 +2246,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2080,9 +2261,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2092,467 +2270,290 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="282">
-    <cellStyle name="Currency" xfId="57" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="통화" xfId="57" builtinId="4"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="280" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3634,47 +3635,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA45FD58-A275-4B4F-8B24-59AF7B4D08D7}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="125" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="142" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="144"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
         <v>48</v>
       </c>
@@ -3697,8 +3698,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="266" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="145" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="36">
@@ -3721,7 +3722,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3729,7 +3730,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3737,18 +3738,18 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="142" t="s">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="144"/>
-    </row>
-    <row r="22" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="150"/>
+    </row>
+    <row r="22" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
         <v>48</v>
       </c>
@@ -3771,8 +3772,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="266" t="s">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="145" t="s">
         <v>127</v>
       </c>
       <c r="C23" s="132">
@@ -3794,18 +3795,18 @@
         <v>447</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="142" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="144"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="150"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="22" t="s">
         <v>48</v>
       </c>
@@ -3828,8 +3829,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="266" t="s">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="145" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="132">
@@ -3861,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3869,18 +3870,18 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="142" t="s">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="144"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="150"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="s">
         <v>48</v>
       </c>
@@ -3903,8 +3904,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="266" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="145" t="s">
         <v>127</v>
       </c>
       <c r="C32" s="134">
@@ -3934,6 +3935,7 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B26:H26"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3942,46 +3944,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B282B325-C187-F449-84B1-93CB61887693}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="125" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="148" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="149"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="153"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="155"/>
       <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -4034,7 +4036,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -4048,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
@@ -4064,7 +4066,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -4078,7 +4080,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
@@ -4118,7 +4120,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
@@ -4132,7 +4134,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
@@ -4148,7 +4150,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
@@ -4162,7 +4164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
@@ -4190,7 +4192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
@@ -4208,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
@@ -4220,7 +4222,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
@@ -4234,7 +4236,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>18</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
@@ -4303,6 +4305,7 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="B10:B11"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4311,50 +4314,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED02846D-C20E-EC4D-A97E-D26BB6944E49}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="125" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="153"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="9" t="s">
         <v>38</v>
@@ -4378,7 +4381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -4426,7 +4429,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -4448,7 +4451,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
@@ -4470,7 +4473,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -4490,7 +4493,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -4540,7 +4543,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
@@ -4560,7 +4563,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
@@ -4584,7 +4587,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
@@ -4604,7 +4607,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
@@ -4626,7 +4629,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
@@ -4648,7 +4651,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
@@ -4694,7 +4697,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
@@ -4716,7 +4719,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
@@ -4736,7 +4739,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -4754,7 +4757,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
@@ -4774,7 +4777,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>18</v>
       </c>
@@ -4794,7 +4797,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
@@ -4812,7 +4815,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4823,7 +4826,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4834,16 +4837,16 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="150" t="s">
+      <c r="C34" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="152"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="158"/>
       <c r="G34" s="120" t="s">
         <v>113</v>
       </c>
@@ -4851,7 +4854,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>115</v>
       </c>
@@ -4874,7 +4877,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
@@ -4897,7 +4900,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
@@ -4920,7 +4923,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
@@ -4943,7 +4946,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>3</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>4</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>5</v>
       </c>
@@ -5003,7 +5006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>6</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>7</v>
       </c>
@@ -5043,7 +5046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>8</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>9</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>11</v>
       </c>
@@ -5123,7 +5126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>12</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>14</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>15</v>
       </c>
@@ -5203,7 +5206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>16</v>
       </c>
@@ -5223,7 +5226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>17</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>18</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>19</v>
       </c>
@@ -5288,6 +5291,7 @@
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C10:I10"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5296,50 +5300,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE0770-6601-7F41-B084-36C244596D72}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="148" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="153" t="s">
+      <c r="D10" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="157" t="s">
+      <c r="E10" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="155" t="s">
+      <c r="F10" s="161" t="s">
         <v>82</v>
       </c>
       <c r="H10" s="85" t="s">
@@ -5349,12 +5353,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="149"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="156"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="155"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="162"/>
       <c r="G11" s="1"/>
       <c r="H11" s="3" t="s">
         <v>89</v>
@@ -5363,7 +5367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -5411,7 +5415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
@@ -5429,7 +5433,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
@@ -5447,7 +5451,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
@@ -5465,7 +5469,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
@@ -5483,7 +5487,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>58</v>
       </c>
@@ -5501,7 +5505,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
@@ -5519,7 +5523,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5537,7 +5541,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -5555,7 +5559,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -5573,7 +5577,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -5591,7 +5595,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>61</v>
       </c>
@@ -5609,7 +5613,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>62</v>
       </c>
@@ -5627,7 +5631,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
@@ -5645,7 +5649,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
@@ -5663,7 +5667,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
@@ -5681,7 +5685,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
@@ -5699,7 +5703,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
@@ -5717,7 +5721,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
@@ -5735,7 +5739,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
@@ -5753,7 +5757,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
@@ -5771,7 +5775,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
@@ -5789,7 +5793,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>51</v>
       </c>
@@ -5807,7 +5811,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>52</v>
       </c>
@@ -5825,7 +5829,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>53</v>
       </c>
@@ -5843,7 +5847,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>54</v>
       </c>
@@ -5869,6 +5873,7 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="E10:E11"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5877,16 +5882,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="38" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>139</v>
       </c>
@@ -5925,7 +5930,7 @@
       <c r="AI1" s="127"/>
       <c r="AJ1" s="127"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>117</v>
       </c>
@@ -5964,7 +5969,7 @@
       <c r="AI2" s="127"/>
       <c r="AJ2" s="127"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="126" t="s">
         <v>147</v>
       </c>
@@ -6003,7 +6008,7 @@
       <c r="AI3" s="127"/>
       <c r="AJ3" s="127"/>
     </row>
-    <row r="4" spans="1:38" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>116</v>
       </c>
@@ -6022,27 +6027,27 @@
       <c r="AK4" s="119"/>
       <c r="AL4" s="119"/>
     </row>
-    <row r="5" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
-      <c r="Y5" s="228" t="s">
+      <c r="Y5" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="Z5" s="229"/>
-      <c r="AA5" s="229"/>
-      <c r="AB5" s="229"/>
-      <c r="AC5" s="229"/>
-      <c r="AD5" s="229"/>
-      <c r="AE5" s="229"/>
-      <c r="AF5" s="229"/>
-      <c r="AG5" s="229"/>
-      <c r="AH5" s="229"/>
-      <c r="AI5" s="229"/>
-      <c r="AJ5" s="229"/>
-      <c r="AK5" s="229"/>
-      <c r="AL5" s="230"/>
-    </row>
-    <row r="6" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y6" s="248" t="s">
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="167"/>
+    </row>
+    <row r="6" spans="1:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y6" s="185" t="s">
         <v>97</v>
       </c>
       <c r="Z6" s="88"/>
@@ -6057,12 +6062,12 @@
       <c r="AI6" s="88"/>
       <c r="AJ6" s="88"/>
       <c r="AK6" s="88"/>
-      <c r="AL6" s="249" t="s">
+      <c r="AL6" s="186" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y7" s="248"/>
+    <row r="7" spans="1:38" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y7" s="185"/>
       <c r="Z7" s="88"/>
       <c r="AA7" s="88"/>
       <c r="AB7" s="88"/>
@@ -6075,9 +6080,9 @@
       <c r="AI7" s="88"/>
       <c r="AJ7" s="88"/>
       <c r="AK7" s="88"/>
-      <c r="AL7" s="249"/>
-    </row>
-    <row r="8" spans="1:38" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AL7" s="186"/>
+    </row>
+    <row r="8" spans="1:38" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D8" s="45"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
@@ -6094,24 +6099,24 @@
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="46"/>
-      <c r="Y8" s="248"/>
+      <c r="Y8" s="185"/>
       <c r="Z8" s="88"/>
       <c r="AA8" s="88"/>
-      <c r="AB8" s="250" t="s">
+      <c r="AB8" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="AC8" s="251"/>
-      <c r="AD8" s="251"/>
-      <c r="AE8" s="251"/>
-      <c r="AF8" s="251"/>
-      <c r="AG8" s="251"/>
-      <c r="AH8" s="251"/>
-      <c r="AI8" s="252"/>
+      <c r="AC8" s="188"/>
+      <c r="AD8" s="188"/>
+      <c r="AE8" s="188"/>
+      <c r="AF8" s="188"/>
+      <c r="AG8" s="188"/>
+      <c r="AH8" s="188"/>
+      <c r="AI8" s="189"/>
       <c r="AJ8" s="88"/>
       <c r="AK8" s="88"/>
-      <c r="AL8" s="249"/>
-    </row>
-    <row r="9" spans="1:38" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AL8" s="186"/>
+    </row>
+    <row r="9" spans="1:38" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="47"/>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
@@ -6123,46 +6128,46 @@
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
-      <c r="O9" s="256" t="s">
+      <c r="O9" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="257"/>
+      <c r="P9" s="194"/>
       <c r="Q9" s="48"/>
-      <c r="Y9" s="248"/>
+      <c r="Y9" s="185"/>
       <c r="Z9" s="88"/>
       <c r="AA9" s="88"/>
-      <c r="AB9" s="218" t="s">
+      <c r="AB9" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="AC9" s="219"/>
-      <c r="AD9" s="219"/>
-      <c r="AE9" s="219"/>
-      <c r="AF9" s="219"/>
-      <c r="AG9" s="219"/>
-      <c r="AH9" s="219"/>
-      <c r="AI9" s="220"/>
+      <c r="AC9" s="213"/>
+      <c r="AD9" s="213"/>
+      <c r="AE9" s="213"/>
+      <c r="AF9" s="213"/>
+      <c r="AG9" s="213"/>
+      <c r="AH9" s="213"/>
+      <c r="AI9" s="214"/>
       <c r="AJ9" s="88"/>
       <c r="AK9" s="88"/>
-      <c r="AL9" s="249"/>
-    </row>
-    <row r="10" spans="1:38" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AL9" s="186"/>
+    </row>
+    <row r="10" spans="1:38" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D10" s="47"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="253" t="s">
+      <c r="F10" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="255"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="192"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="259"/>
+      <c r="O10" s="195"/>
+      <c r="P10" s="196"/>
       <c r="Q10" s="48"/>
-      <c r="Y10" s="248"/>
+      <c r="Y10" s="185"/>
       <c r="Z10" s="88"/>
       <c r="AA10" s="88"/>
       <c r="AB10" s="89"/>
@@ -6175,26 +6180,26 @@
       <c r="AI10" s="90"/>
       <c r="AJ10" s="88"/>
       <c r="AK10" s="88"/>
-      <c r="AL10" s="249"/>
-    </row>
-    <row r="11" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL10" s="186"/>
+    </row>
+    <row r="11" spans="1:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="47"/>
       <c r="E11" s="42"/>
-      <c r="F11" s="242" t="s">
+      <c r="F11" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="243"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
-      <c r="J11" s="243"/>
-      <c r="K11" s="244"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="181"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="258"/>
-      <c r="P11" s="259"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="196"/>
       <c r="Q11" s="48"/>
-      <c r="Y11" s="248"/>
+      <c r="Y11" s="185"/>
       <c r="Z11" s="88"/>
       <c r="AA11" s="88"/>
       <c r="AB11" s="89"/>
@@ -6207,24 +6212,24 @@
       <c r="AI11" s="90"/>
       <c r="AJ11" s="88"/>
       <c r="AK11" s="88"/>
-      <c r="AL11" s="249"/>
-    </row>
-    <row r="12" spans="1:38" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AL11" s="186"/>
+    </row>
+    <row r="12" spans="1:38" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="47"/>
       <c r="E12" s="42"/>
-      <c r="F12" s="245"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="247"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="184"/>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
-      <c r="O12" s="258"/>
-      <c r="P12" s="259"/>
+      <c r="O12" s="195"/>
+      <c r="P12" s="196"/>
       <c r="Q12" s="48"/>
-      <c r="Y12" s="248"/>
+      <c r="Y12" s="185"/>
       <c r="Z12" s="88"/>
       <c r="AA12" s="88"/>
       <c r="AB12" s="89"/>
@@ -6237,9 +6242,9 @@
       <c r="AI12" s="90"/>
       <c r="AJ12" s="88"/>
       <c r="AK12" s="88"/>
-      <c r="AL12" s="249"/>
-    </row>
-    <row r="13" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL12" s="186"/>
+    </row>
+    <row r="13" spans="1:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="47"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -6251,10 +6256,10 @@
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
-      <c r="O13" s="260"/>
-      <c r="P13" s="261"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="198"/>
       <c r="Q13" s="48"/>
-      <c r="Y13" s="248"/>
+      <c r="Y13" s="185"/>
       <c r="Z13" s="88"/>
       <c r="AA13" s="88"/>
       <c r="AB13" s="89"/>
@@ -6267,9 +6272,9 @@
       <c r="AI13" s="90"/>
       <c r="AJ13" s="88"/>
       <c r="AK13" s="88"/>
-      <c r="AL13" s="249"/>
-    </row>
-    <row r="14" spans="1:38" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AL13" s="186"/>
+    </row>
+    <row r="14" spans="1:38" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="49"/>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
@@ -6286,7 +6291,7 @@
       <c r="O14" s="44"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="50"/>
-      <c r="Y14" s="248"/>
+      <c r="Y14" s="185"/>
       <c r="Z14" s="88"/>
       <c r="AA14" s="88"/>
       <c r="AB14" s="89"/>
@@ -6299,10 +6304,10 @@
       <c r="AI14" s="90"/>
       <c r="AJ14" s="88"/>
       <c r="AK14" s="88"/>
-      <c r="AL14" s="249"/>
-    </row>
-    <row r="15" spans="1:38" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Y15" s="248"/>
+      <c r="AL14" s="186"/>
+    </row>
+    <row r="15" spans="1:38" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Y15" s="185"/>
       <c r="Z15" s="88"/>
       <c r="AA15" s="88"/>
       <c r="AB15" s="96"/>
@@ -6315,27 +6320,27 @@
       <c r="AI15" s="96"/>
       <c r="AJ15" s="88"/>
       <c r="AK15" s="88"/>
-      <c r="AL15" s="249"/>
-    </row>
-    <row r="16" spans="1:38" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y16" s="248"/>
+      <c r="AL15" s="186"/>
+    </row>
+    <row r="16" spans="1:38" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y16" s="185"/>
       <c r="Z16" s="88"/>
-      <c r="AA16" s="212" t="s">
+      <c r="AA16" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="AB16" s="213"/>
-      <c r="AC16" s="213"/>
-      <c r="AD16" s="213"/>
-      <c r="AE16" s="213"/>
-      <c r="AF16" s="213"/>
-      <c r="AG16" s="213"/>
-      <c r="AH16" s="213"/>
-      <c r="AI16" s="213"/>
-      <c r="AJ16" s="214"/>
+      <c r="AB16" s="207"/>
+      <c r="AC16" s="207"/>
+      <c r="AD16" s="207"/>
+      <c r="AE16" s="207"/>
+      <c r="AF16" s="207"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="207"/>
+      <c r="AI16" s="207"/>
+      <c r="AJ16" s="208"/>
       <c r="AK16" s="88"/>
-      <c r="AL16" s="249"/>
-    </row>
-    <row r="17" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL16" s="186"/>
+    </row>
+    <row r="17" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="51"/>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
@@ -6360,22 +6365,22 @@
       <c r="U17" s="52"/>
       <c r="V17" s="52"/>
       <c r="W17" s="54"/>
-      <c r="Y17" s="248"/>
+      <c r="Y17" s="185"/>
       <c r="Z17" s="88"/>
-      <c r="AA17" s="215"/>
-      <c r="AB17" s="216"/>
-      <c r="AC17" s="216"/>
-      <c r="AD17" s="216"/>
-      <c r="AE17" s="216"/>
-      <c r="AF17" s="216"/>
-      <c r="AG17" s="216"/>
-      <c r="AH17" s="216"/>
-      <c r="AI17" s="216"/>
-      <c r="AJ17" s="217"/>
+      <c r="AA17" s="209"/>
+      <c r="AB17" s="210"/>
+      <c r="AC17" s="210"/>
+      <c r="AD17" s="210"/>
+      <c r="AE17" s="210"/>
+      <c r="AF17" s="210"/>
+      <c r="AG17" s="210"/>
+      <c r="AH17" s="210"/>
+      <c r="AI17" s="210"/>
+      <c r="AJ17" s="211"/>
       <c r="AK17" s="88"/>
-      <c r="AL17" s="249"/>
-    </row>
-    <row r="18" spans="2:38" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AL17" s="186"/>
+    </row>
+    <row r="18" spans="2:38" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -6413,7 +6418,7 @@
       <c r="AK18" s="100"/>
       <c r="AL18" s="102"/>
     </row>
-    <row r="19" spans="2:38" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:38" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="55"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -6439,9 +6444,9 @@
       <c r="V19" s="40"/>
       <c r="W19" s="56"/>
     </row>
-    <row r="20" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="55"/>
-      <c r="C20" s="234" t="s">
+      <c r="C20" s="171" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="40"/>
@@ -6464,112 +6469,112 @@
       <c r="S20" s="61"/>
       <c r="T20" s="63"/>
       <c r="U20" s="40"/>
-      <c r="V20" s="234" t="s">
+      <c r="V20" s="171" t="s">
         <v>69</v>
       </c>
       <c r="W20" s="56"/>
     </row>
-    <row r="21" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="55"/>
-      <c r="C21" s="234"/>
+      <c r="C21" s="171"/>
       <c r="D21" s="40"/>
       <c r="E21" s="64"/>
-      <c r="F21" s="241" t="s">
+      <c r="F21" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="241"/>
-      <c r="H21" s="241"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="241"/>
-      <c r="L21" s="241"/>
-      <c r="M21" s="241"/>
-      <c r="N21" s="241"/>
-      <c r="O21" s="241"/>
-      <c r="P21" s="241"/>
-      <c r="Q21" s="241"/>
-      <c r="R21" s="241"/>
-      <c r="S21" s="241"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="178"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="178"/>
+      <c r="Q21" s="178"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="178"/>
       <c r="T21" s="65"/>
       <c r="U21" s="40"/>
-      <c r="V21" s="234"/>
+      <c r="V21" s="171"/>
       <c r="W21" s="56"/>
     </row>
-    <row r="22" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="55"/>
-      <c r="C22" s="234"/>
+      <c r="C22" s="171"/>
       <c r="D22" s="40"/>
       <c r="E22" s="64"/>
-      <c r="F22" s="241"/>
-      <c r="G22" s="241"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="241"/>
-      <c r="N22" s="241"/>
-      <c r="O22" s="241"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="241"/>
-      <c r="R22" s="241"/>
-      <c r="S22" s="241"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="178"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="178"/>
+      <c r="S22" s="178"/>
       <c r="T22" s="65"/>
       <c r="U22" s="40"/>
-      <c r="V22" s="234"/>
+      <c r="V22" s="171"/>
       <c r="W22" s="56"/>
     </row>
-    <row r="23" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="55"/>
-      <c r="C23" s="234"/>
+      <c r="C23" s="171"/>
       <c r="D23" s="40"/>
       <c r="E23" s="64"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="241"/>
-      <c r="L23" s="241"/>
-      <c r="M23" s="241"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="241"/>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="241"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="241"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178"/>
+      <c r="O23" s="178"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="178"/>
       <c r="T23" s="65"/>
       <c r="U23" s="40"/>
-      <c r="V23" s="234"/>
+      <c r="V23" s="171"/>
       <c r="W23" s="56"/>
     </row>
-    <row r="24" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="55"/>
-      <c r="C24" s="234"/>
+      <c r="C24" s="171"/>
       <c r="D24" s="40"/>
       <c r="E24" s="64"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="241"/>
-      <c r="L24" s="241"/>
-      <c r="M24" s="241"/>
-      <c r="N24" s="241"/>
-      <c r="O24" s="241"/>
-      <c r="P24" s="241"/>
-      <c r="Q24" s="241"/>
-      <c r="R24" s="241"/>
-      <c r="S24" s="241"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
+      <c r="N24" s="178"/>
+      <c r="O24" s="178"/>
+      <c r="P24" s="178"/>
+      <c r="Q24" s="178"/>
+      <c r="R24" s="178"/>
+      <c r="S24" s="178"/>
       <c r="T24" s="65"/>
       <c r="U24" s="40"/>
-      <c r="V24" s="234"/>
+      <c r="V24" s="171"/>
       <c r="W24" s="56"/>
     </row>
-    <row r="25" spans="2:38" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="55"/>
-      <c r="C25" s="234"/>
+      <c r="C25" s="171"/>
       <c r="D25" s="40"/>
       <c r="E25" s="66"/>
       <c r="F25" s="67"/>
@@ -6588,10 +6593,10 @@
       <c r="S25" s="67"/>
       <c r="T25" s="69"/>
       <c r="U25" s="40"/>
-      <c r="V25" s="234"/>
+      <c r="V25" s="171"/>
       <c r="W25" s="56"/>
     </row>
-    <row r="26" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="55"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -6615,7 +6620,7 @@
       <c r="V26" s="40"/>
       <c r="W26" s="56"/>
     </row>
-    <row r="27" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="55"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -6639,7 +6644,7 @@
       <c r="V27" s="40"/>
       <c r="W27" s="56"/>
     </row>
-    <row r="28" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="55"/>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -6663,59 +6668,59 @@
       <c r="V28" s="40"/>
       <c r="W28" s="56"/>
     </row>
-    <row r="29" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="55"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="235" t="s">
+      <c r="D29" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="236"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="174"/>
       <c r="L29" s="40"/>
       <c r="M29" s="40"/>
-      <c r="N29" s="235" t="s">
+      <c r="N29" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="O29" s="236"/>
-      <c r="P29" s="236"/>
-      <c r="Q29" s="236"/>
-      <c r="R29" s="236"/>
-      <c r="S29" s="236"/>
-      <c r="T29" s="236"/>
-      <c r="U29" s="237"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="173"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="174"/>
       <c r="V29" s="40"/>
       <c r="W29" s="56"/>
     </row>
-    <row r="30" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="55"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="238"/>
-      <c r="E30" s="239"/>
-      <c r="F30" s="239"/>
-      <c r="G30" s="239"/>
-      <c r="H30" s="239"/>
-      <c r="I30" s="239"/>
-      <c r="J30" s="239"/>
-      <c r="K30" s="240"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="177"/>
       <c r="L30" s="40"/>
       <c r="M30" s="40"/>
-      <c r="N30" s="238"/>
-      <c r="O30" s="239"/>
-      <c r="P30" s="239"/>
-      <c r="Q30" s="239"/>
-      <c r="R30" s="239"/>
-      <c r="S30" s="239"/>
-      <c r="T30" s="239"/>
-      <c r="U30" s="240"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="176"/>
+      <c r="P30" s="176"/>
+      <c r="Q30" s="176"/>
+      <c r="R30" s="176"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="177"/>
       <c r="V30" s="40"/>
       <c r="W30" s="56"/>
     </row>
-    <row r="31" spans="2:38" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:38" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="57"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -6739,54 +6744,54 @@
       <c r="V31" s="58"/>
       <c r="W31" s="59"/>
     </row>
-    <row r="32" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:37" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="165" t="s">
+    <row r="32" spans="2:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:37" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="234" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="166"/>
-      <c r="K34" s="166"/>
-      <c r="L34" s="166"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166"/>
-      <c r="O34" s="166"/>
-      <c r="P34" s="166"/>
-      <c r="Q34" s="166"/>
-      <c r="R34" s="166"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="166"/>
-      <c r="U34" s="166"/>
-      <c r="V34" s="166"/>
-      <c r="W34" s="166"/>
-      <c r="X34" s="166"/>
-      <c r="Y34" s="166"/>
-      <c r="Z34" s="166"/>
-      <c r="AA34" s="166"/>
-      <c r="AB34" s="166"/>
-      <c r="AC34" s="166"/>
-      <c r="AD34" s="166"/>
-      <c r="AE34" s="166"/>
-      <c r="AF34" s="166"/>
-      <c r="AG34" s="166"/>
-      <c r="AH34" s="166"/>
-      <c r="AI34" s="166"/>
-      <c r="AJ34" s="166"/>
-      <c r="AK34" s="167"/>
-    </row>
-    <row r="35" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="235"/>
+      <c r="D34" s="235"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="235"/>
+      <c r="M34" s="235"/>
+      <c r="N34" s="235"/>
+      <c r="O34" s="235"/>
+      <c r="P34" s="235"/>
+      <c r="Q34" s="235"/>
+      <c r="R34" s="235"/>
+      <c r="S34" s="235"/>
+      <c r="T34" s="235"/>
+      <c r="U34" s="235"/>
+      <c r="V34" s="235"/>
+      <c r="W34" s="235"/>
+      <c r="X34" s="235"/>
+      <c r="Y34" s="235"/>
+      <c r="Z34" s="235"/>
+      <c r="AA34" s="235"/>
+      <c r="AB34" s="235"/>
+      <c r="AC34" s="235"/>
+      <c r="AD34" s="235"/>
+      <c r="AE34" s="235"/>
+      <c r="AF34" s="235"/>
+      <c r="AG34" s="235"/>
+      <c r="AH34" s="235"/>
+      <c r="AI34" s="235"/>
+      <c r="AJ34" s="235"/>
+      <c r="AK34" s="236"/>
+    </row>
+    <row r="35" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="76"/>
-      <c r="C35" s="168" t="s">
+      <c r="C35" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="169"/>
+      <c r="D35" s="200"/>
       <c r="E35" s="77"/>
       <c r="F35" s="77"/>
       <c r="G35" s="77"/>
@@ -6819,16 +6824,16 @@
       <c r="AF35" s="77"/>
       <c r="AG35" s="77"/>
       <c r="AH35" s="77"/>
-      <c r="AI35" s="168" t="s">
+      <c r="AI35" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="AJ35" s="169"/>
+      <c r="AJ35" s="200"/>
       <c r="AK35" s="78"/>
     </row>
-    <row r="36" spans="2:37" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:37" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="76"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="171"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="202"/>
       <c r="E36" s="77"/>
       <c r="F36" s="77"/>
       <c r="G36" s="77"/>
@@ -6859,170 +6864,170 @@
       <c r="AF36" s="77"/>
       <c r="AG36" s="77"/>
       <c r="AH36" s="77"/>
-      <c r="AI36" s="170"/>
-      <c r="AJ36" s="171"/>
+      <c r="AI36" s="201"/>
+      <c r="AJ36" s="202"/>
       <c r="AK36" s="78"/>
     </row>
-    <row r="37" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="76"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="171"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="202"/>
       <c r="E37" s="77"/>
       <c r="F37" s="77"/>
       <c r="G37" s="77"/>
-      <c r="H37" s="231" t="s">
+      <c r="H37" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="232"/>
-      <c r="J37" s="232"/>
-      <c r="K37" s="232"/>
-      <c r="L37" s="232"/>
-      <c r="M37" s="232"/>
-      <c r="N37" s="232"/>
-      <c r="O37" s="232"/>
-      <c r="P37" s="232"/>
-      <c r="Q37" s="232"/>
-      <c r="R37" s="232"/>
-      <c r="S37" s="232"/>
-      <c r="T37" s="232"/>
-      <c r="U37" s="232"/>
-      <c r="V37" s="232"/>
-      <c r="W37" s="232"/>
-      <c r="X37" s="232"/>
-      <c r="Y37" s="232"/>
-      <c r="Z37" s="232"/>
-      <c r="AA37" s="232"/>
-      <c r="AB37" s="232"/>
-      <c r="AC37" s="232"/>
-      <c r="AD37" s="232"/>
-      <c r="AE37" s="233"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="169"/>
+      <c r="P37" s="169"/>
+      <c r="Q37" s="169"/>
+      <c r="R37" s="169"/>
+      <c r="S37" s="169"/>
+      <c r="T37" s="169"/>
+      <c r="U37" s="169"/>
+      <c r="V37" s="169"/>
+      <c r="W37" s="169"/>
+      <c r="X37" s="169"/>
+      <c r="Y37" s="169"/>
+      <c r="Z37" s="169"/>
+      <c r="AA37" s="169"/>
+      <c r="AB37" s="169"/>
+      <c r="AC37" s="169"/>
+      <c r="AD37" s="169"/>
+      <c r="AE37" s="170"/>
       <c r="AF37" s="77"/>
       <c r="AG37" s="77"/>
       <c r="AH37" s="77"/>
-      <c r="AI37" s="170"/>
-      <c r="AJ37" s="171"/>
+      <c r="AI37" s="201"/>
+      <c r="AJ37" s="202"/>
       <c r="AK37" s="78"/>
     </row>
-    <row r="38" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="76"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="171"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="202"/>
       <c r="E38" s="77"/>
       <c r="F38" s="77"/>
       <c r="G38" s="77"/>
       <c r="H38" s="74"/>
-      <c r="I38" s="262" t="s">
+      <c r="I38" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="262"/>
-      <c r="K38" s="262"/>
-      <c r="L38" s="262"/>
-      <c r="M38" s="262"/>
-      <c r="N38" s="262"/>
-      <c r="O38" s="262"/>
-      <c r="P38" s="262"/>
-      <c r="Q38" s="262"/>
-      <c r="R38" s="262"/>
-      <c r="S38" s="262"/>
-      <c r="T38" s="262"/>
-      <c r="U38" s="262"/>
-      <c r="V38" s="262"/>
-      <c r="W38" s="262"/>
-      <c r="X38" s="262"/>
-      <c r="Y38" s="262"/>
-      <c r="Z38" s="262"/>
-      <c r="AA38" s="262"/>
-      <c r="AB38" s="262"/>
-      <c r="AC38" s="262"/>
-      <c r="AD38" s="262"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="205"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="205"/>
+      <c r="O38" s="205"/>
+      <c r="P38" s="205"/>
+      <c r="Q38" s="205"/>
+      <c r="R38" s="205"/>
+      <c r="S38" s="205"/>
+      <c r="T38" s="205"/>
+      <c r="U38" s="205"/>
+      <c r="V38" s="205"/>
+      <c r="W38" s="205"/>
+      <c r="X38" s="205"/>
+      <c r="Y38" s="205"/>
+      <c r="Z38" s="205"/>
+      <c r="AA38" s="205"/>
+      <c r="AB38" s="205"/>
+      <c r="AC38" s="205"/>
+      <c r="AD38" s="205"/>
       <c r="AE38" s="75"/>
       <c r="AF38" s="77"/>
       <c r="AG38" s="77"/>
       <c r="AH38" s="77"/>
-      <c r="AI38" s="170"/>
-      <c r="AJ38" s="171"/>
+      <c r="AI38" s="201"/>
+      <c r="AJ38" s="202"/>
       <c r="AK38" s="78"/>
     </row>
-    <row r="39" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="76"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="171"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="202"/>
       <c r="E39" s="77"/>
       <c r="F39" s="77"/>
       <c r="G39" s="77"/>
       <c r="H39" s="74"/>
-      <c r="I39" s="262"/>
-      <c r="J39" s="262"/>
-      <c r="K39" s="262"/>
-      <c r="L39" s="262"/>
-      <c r="M39" s="262"/>
-      <c r="N39" s="262"/>
-      <c r="O39" s="262"/>
-      <c r="P39" s="262"/>
-      <c r="Q39" s="262"/>
-      <c r="R39" s="262"/>
-      <c r="S39" s="262"/>
-      <c r="T39" s="262"/>
-      <c r="U39" s="262"/>
-      <c r="V39" s="262"/>
-      <c r="W39" s="262"/>
-      <c r="X39" s="262"/>
-      <c r="Y39" s="262"/>
-      <c r="Z39" s="262"/>
-      <c r="AA39" s="262"/>
-      <c r="AB39" s="262"/>
-      <c r="AC39" s="262"/>
-      <c r="AD39" s="262"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
+      <c r="Q39" s="205"/>
+      <c r="R39" s="205"/>
+      <c r="S39" s="205"/>
+      <c r="T39" s="205"/>
+      <c r="U39" s="205"/>
+      <c r="V39" s="205"/>
+      <c r="W39" s="205"/>
+      <c r="X39" s="205"/>
+      <c r="Y39" s="205"/>
+      <c r="Z39" s="205"/>
+      <c r="AA39" s="205"/>
+      <c r="AB39" s="205"/>
+      <c r="AC39" s="205"/>
+      <c r="AD39" s="205"/>
       <c r="AE39" s="75"/>
       <c r="AF39" s="77"/>
       <c r="AG39" s="77"/>
       <c r="AH39" s="77"/>
-      <c r="AI39" s="170"/>
-      <c r="AJ39" s="171"/>
+      <c r="AI39" s="201"/>
+      <c r="AJ39" s="202"/>
       <c r="AK39" s="78"/>
     </row>
-    <row r="40" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="76"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="171"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="202"/>
       <c r="E40" s="77"/>
       <c r="F40" s="77"/>
       <c r="G40" s="77"/>
       <c r="H40" s="74"/>
-      <c r="I40" s="262"/>
-      <c r="J40" s="262"/>
-      <c r="K40" s="262"/>
-      <c r="L40" s="262"/>
-      <c r="M40" s="262"/>
-      <c r="N40" s="262"/>
-      <c r="O40" s="262"/>
-      <c r="P40" s="262"/>
-      <c r="Q40" s="262"/>
-      <c r="R40" s="262"/>
-      <c r="S40" s="262"/>
-      <c r="T40" s="262"/>
-      <c r="U40" s="262"/>
-      <c r="V40" s="262"/>
-      <c r="W40" s="262"/>
-      <c r="X40" s="262"/>
-      <c r="Y40" s="262"/>
-      <c r="Z40" s="262"/>
-      <c r="AA40" s="262"/>
-      <c r="AB40" s="262"/>
-      <c r="AC40" s="262"/>
-      <c r="AD40" s="262"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="205"/>
+      <c r="K40" s="205"/>
+      <c r="L40" s="205"/>
+      <c r="M40" s="205"/>
+      <c r="N40" s="205"/>
+      <c r="O40" s="205"/>
+      <c r="P40" s="205"/>
+      <c r="Q40" s="205"/>
+      <c r="R40" s="205"/>
+      <c r="S40" s="205"/>
+      <c r="T40" s="205"/>
+      <c r="U40" s="205"/>
+      <c r="V40" s="205"/>
+      <c r="W40" s="205"/>
+      <c r="X40" s="205"/>
+      <c r="Y40" s="205"/>
+      <c r="Z40" s="205"/>
+      <c r="AA40" s="205"/>
+      <c r="AB40" s="205"/>
+      <c r="AC40" s="205"/>
+      <c r="AD40" s="205"/>
       <c r="AE40" s="75"/>
       <c r="AF40" s="77"/>
       <c r="AG40" s="77"/>
       <c r="AH40" s="77"/>
-      <c r="AI40" s="170"/>
-      <c r="AJ40" s="171"/>
+      <c r="AI40" s="201"/>
+      <c r="AJ40" s="202"/>
       <c r="AK40" s="78"/>
     </row>
-    <row r="41" spans="2:37" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:37" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="76"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="171"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="202"/>
       <c r="E41" s="77"/>
       <c r="F41" s="77"/>
       <c r="G41" s="77"/>
@@ -7053,14 +7058,14 @@
       <c r="AF41" s="77"/>
       <c r="AG41" s="77"/>
       <c r="AH41" s="77"/>
-      <c r="AI41" s="170"/>
-      <c r="AJ41" s="171"/>
+      <c r="AI41" s="201"/>
+      <c r="AJ41" s="202"/>
       <c r="AK41" s="78"/>
     </row>
-    <row r="42" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="76"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="171"/>
+      <c r="C42" s="201"/>
+      <c r="D42" s="202"/>
       <c r="E42" s="77"/>
       <c r="F42" s="77"/>
       <c r="G42" s="77"/>
@@ -7091,14 +7096,14 @@
       <c r="AF42" s="77"/>
       <c r="AG42" s="77"/>
       <c r="AH42" s="77"/>
-      <c r="AI42" s="170"/>
-      <c r="AJ42" s="171"/>
+      <c r="AI42" s="201"/>
+      <c r="AJ42" s="202"/>
       <c r="AK42" s="78"/>
     </row>
-    <row r="43" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="76"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="173"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="204"/>
       <c r="E43" s="77"/>
       <c r="F43" s="77"/>
       <c r="G43" s="77"/>
@@ -7131,11 +7136,11 @@
       <c r="AF43" s="77"/>
       <c r="AG43" s="77"/>
       <c r="AH43" s="77"/>
-      <c r="AI43" s="172"/>
-      <c r="AJ43" s="173"/>
+      <c r="AI43" s="203"/>
+      <c r="AJ43" s="204"/>
       <c r="AK43" s="78"/>
     </row>
-    <row r="44" spans="2:37" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:37" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="79"/>
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
@@ -7173,10 +7178,10 @@
       <c r="AJ44" s="80"/>
       <c r="AK44" s="81"/>
     </row>
-    <row r="45" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G48" s="12"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
@@ -7184,18 +7189,18 @@
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
-      <c r="N48" s="175" t="s">
+      <c r="N48" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="O48" s="175"/>
-      <c r="P48" s="175"/>
-      <c r="Q48" s="178"/>
-      <c r="V48" s="174" t="s">
+      <c r="O48" s="238"/>
+      <c r="P48" s="238"/>
+      <c r="Q48" s="241"/>
+      <c r="V48" s="237" t="s">
         <v>109</v>
       </c>
-      <c r="W48" s="175"/>
-      <c r="X48" s="175"/>
-      <c r="Y48" s="175"/>
+      <c r="W48" s="238"/>
+      <c r="X48" s="238"/>
+      <c r="Y48" s="238"/>
       <c r="Z48" s="104"/>
       <c r="AA48" s="104"/>
       <c r="AB48" s="104"/>
@@ -7208,7 +7213,7 @@
       <c r="AI48" s="104"/>
       <c r="AJ48" s="23"/>
     </row>
-    <row r="49" spans="7:36" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G49" s="113"/>
       <c r="H49" s="88"/>
       <c r="I49" s="88"/>
@@ -7216,14 +7221,14 @@
       <c r="K49" s="88"/>
       <c r="L49" s="88"/>
       <c r="M49" s="88"/>
-      <c r="N49" s="177"/>
-      <c r="O49" s="177"/>
-      <c r="P49" s="177"/>
-      <c r="Q49" s="179"/>
-      <c r="V49" s="176"/>
-      <c r="W49" s="177"/>
-      <c r="X49" s="177"/>
-      <c r="Y49" s="177"/>
+      <c r="N49" s="240"/>
+      <c r="O49" s="240"/>
+      <c r="P49" s="240"/>
+      <c r="Q49" s="242"/>
+      <c r="V49" s="239"/>
+      <c r="W49" s="240"/>
+      <c r="X49" s="240"/>
+      <c r="Y49" s="240"/>
       <c r="Z49" s="88"/>
       <c r="AA49" s="88"/>
       <c r="AB49" s="88"/>
@@ -7236,7 +7241,7 @@
       <c r="AI49" s="88"/>
       <c r="AJ49" s="20"/>
     </row>
-    <row r="50" spans="7:36" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:36" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G50" s="113"/>
       <c r="H50" s="88"/>
       <c r="I50" s="88"/>
@@ -7264,169 +7269,169 @@
       <c r="AI50" s="88"/>
       <c r="AJ50" s="20"/>
     </row>
-    <row r="51" spans="7:36" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G51" s="113"/>
       <c r="H51" s="88"/>
       <c r="I51" s="88"/>
-      <c r="J51" s="194" t="s">
+      <c r="J51" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="K51" s="195"/>
-      <c r="L51" s="195"/>
-      <c r="M51" s="195"/>
-      <c r="N51" s="196"/>
+      <c r="K51" s="256"/>
+      <c r="L51" s="256"/>
+      <c r="M51" s="256"/>
+      <c r="N51" s="257"/>
       <c r="O51" s="88"/>
       <c r="P51" s="88"/>
       <c r="Q51" s="20"/>
       <c r="V51" s="113"/>
       <c r="W51" s="88"/>
       <c r="X51" s="88"/>
-      <c r="Y51" s="194" t="s">
+      <c r="Y51" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="Z51" s="195"/>
-      <c r="AA51" s="195"/>
-      <c r="AB51" s="195"/>
-      <c r="AC51" s="195"/>
-      <c r="AD51" s="195"/>
-      <c r="AE51" s="195"/>
-      <c r="AF51" s="195"/>
-      <c r="AG51" s="196"/>
+      <c r="Z51" s="256"/>
+      <c r="AA51" s="256"/>
+      <c r="AB51" s="256"/>
+      <c r="AC51" s="256"/>
+      <c r="AD51" s="256"/>
+      <c r="AE51" s="256"/>
+      <c r="AF51" s="256"/>
+      <c r="AG51" s="257"/>
       <c r="AH51" s="88"/>
       <c r="AI51" s="88"/>
       <c r="AJ51" s="20"/>
     </row>
-    <row r="52" spans="7:36" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:36" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G52" s="113"/>
       <c r="H52" s="88"/>
       <c r="I52" s="88"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="198"/>
-      <c r="N52" s="199"/>
+      <c r="J52" s="258"/>
+      <c r="K52" s="259"/>
+      <c r="L52" s="259"/>
+      <c r="M52" s="259"/>
+      <c r="N52" s="260"/>
       <c r="O52" s="88"/>
       <c r="P52" s="88"/>
       <c r="Q52" s="20"/>
       <c r="V52" s="113"/>
       <c r="W52" s="88"/>
       <c r="X52" s="88"/>
-      <c r="Y52" s="197"/>
-      <c r="Z52" s="198"/>
-      <c r="AA52" s="198"/>
-      <c r="AB52" s="198"/>
-      <c r="AC52" s="198"/>
-      <c r="AD52" s="198"/>
-      <c r="AE52" s="198"/>
-      <c r="AF52" s="198"/>
-      <c r="AG52" s="199"/>
+      <c r="Y52" s="258"/>
+      <c r="Z52" s="259"/>
+      <c r="AA52" s="259"/>
+      <c r="AB52" s="259"/>
+      <c r="AC52" s="259"/>
+      <c r="AD52" s="259"/>
+      <c r="AE52" s="259"/>
+      <c r="AF52" s="259"/>
+      <c r="AG52" s="260"/>
       <c r="AH52" s="88"/>
       <c r="AI52" s="88"/>
       <c r="AJ52" s="20"/>
     </row>
-    <row r="53" spans="7:36" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:36" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G53" s="116"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="200" t="s">
+      <c r="J53" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="K53" s="222"/>
+      <c r="L53" s="222"/>
+      <c r="M53" s="222"/>
+      <c r="N53" s="223"/>
       <c r="O53" s="88"/>
       <c r="P53" s="88"/>
       <c r="Q53" s="115"/>
       <c r="V53" s="113"/>
       <c r="W53" s="88"/>
       <c r="X53" s="88"/>
-      <c r="Y53" s="200" t="s">
+      <c r="Y53" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="Z53" s="201"/>
-      <c r="AA53" s="201"/>
-      <c r="AB53" s="201"/>
-      <c r="AC53" s="201"/>
-      <c r="AD53" s="201"/>
-      <c r="AE53" s="201"/>
-      <c r="AF53" s="201"/>
-      <c r="AG53" s="202"/>
+      <c r="Z53" s="222"/>
+      <c r="AA53" s="222"/>
+      <c r="AB53" s="222"/>
+      <c r="AC53" s="222"/>
+      <c r="AD53" s="222"/>
+      <c r="AE53" s="222"/>
+      <c r="AF53" s="222"/>
+      <c r="AG53" s="223"/>
       <c r="AH53" s="88"/>
       <c r="AI53" s="88"/>
       <c r="AJ53" s="20"/>
     </row>
-    <row r="54" spans="7:36" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G54" s="203" t="s">
+    <row r="54" spans="7:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="261" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="185"/>
-      <c r="I54" s="204"/>
+      <c r="H54" s="248"/>
+      <c r="I54" s="262"/>
       <c r="J54" s="109"/>
-      <c r="K54" s="188" t="s">
+      <c r="K54" s="251" t="s">
         <v>103</v>
       </c>
-      <c r="L54" s="189"/>
-      <c r="M54" s="190"/>
+      <c r="L54" s="252"/>
+      <c r="M54" s="253"/>
       <c r="N54" s="110"/>
-      <c r="O54" s="207" t="s">
+      <c r="O54" s="265" t="s">
         <v>105</v>
       </c>
-      <c r="P54" s="208"/>
-      <c r="Q54" s="209"/>
-      <c r="V54" s="184" t="s">
+      <c r="P54" s="224"/>
+      <c r="Q54" s="266"/>
+      <c r="V54" s="247" t="s">
         <v>104</v>
       </c>
-      <c r="W54" s="185"/>
-      <c r="X54" s="185"/>
+      <c r="W54" s="248"/>
+      <c r="X54" s="248"/>
       <c r="Y54" s="105"/>
-      <c r="Z54" s="188" t="s">
+      <c r="Z54" s="251" t="s">
         <v>103</v>
       </c>
-      <c r="AA54" s="189"/>
-      <c r="AB54" s="190"/>
+      <c r="AA54" s="252"/>
+      <c r="AB54" s="253"/>
       <c r="AC54" s="106"/>
-      <c r="AD54" s="221" t="s">
+      <c r="AD54" s="215" t="s">
         <v>107</v>
       </c>
-      <c r="AE54" s="222"/>
-      <c r="AF54" s="223"/>
+      <c r="AE54" s="216"/>
+      <c r="AF54" s="217"/>
       <c r="AG54" s="106"/>
-      <c r="AH54" s="208" t="s">
+      <c r="AH54" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="AI54" s="208"/>
-      <c r="AJ54" s="227"/>
-    </row>
-    <row r="55" spans="7:36" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G55" s="205"/>
-      <c r="H55" s="187"/>
-      <c r="I55" s="206"/>
+      <c r="AI54" s="224"/>
+      <c r="AJ54" s="225"/>
+    </row>
+    <row r="55" spans="7:36" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="263"/>
+      <c r="H55" s="250"/>
+      <c r="I55" s="264"/>
       <c r="J55" s="111"/>
-      <c r="K55" s="191"/>
-      <c r="L55" s="192"/>
-      <c r="M55" s="193"/>
+      <c r="K55" s="254"/>
+      <c r="L55" s="226"/>
+      <c r="M55" s="227"/>
       <c r="N55" s="112"/>
-      <c r="O55" s="210"/>
-      <c r="P55" s="192"/>
-      <c r="Q55" s="211"/>
-      <c r="V55" s="186"/>
-      <c r="W55" s="187"/>
-      <c r="X55" s="187"/>
+      <c r="O55" s="267"/>
+      <c r="P55" s="226"/>
+      <c r="Q55" s="268"/>
+      <c r="V55" s="249"/>
+      <c r="W55" s="250"/>
+      <c r="X55" s="250"/>
       <c r="Y55" s="107"/>
-      <c r="Z55" s="191"/>
-      <c r="AA55" s="192"/>
-      <c r="AB55" s="193"/>
+      <c r="Z55" s="254"/>
+      <c r="AA55" s="226"/>
+      <c r="AB55" s="227"/>
       <c r="AC55" s="108"/>
-      <c r="AD55" s="224"/>
-      <c r="AE55" s="225"/>
-      <c r="AF55" s="226"/>
+      <c r="AD55" s="218"/>
+      <c r="AE55" s="219"/>
+      <c r="AF55" s="220"/>
       <c r="AG55" s="108"/>
-      <c r="AH55" s="192"/>
-      <c r="AI55" s="192"/>
-      <c r="AJ55" s="193"/>
-    </row>
-    <row r="56" spans="7:36" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH55" s="226"/>
+      <c r="AI55" s="226"/>
+      <c r="AJ55" s="227"/>
+    </row>
+    <row r="56" spans="7:36" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G56" s="113"/>
       <c r="H56" s="88"/>
       <c r="I56" s="88"/>
@@ -7454,7 +7459,7 @@
       <c r="AI56" s="88"/>
       <c r="AJ56" s="20"/>
     </row>
-    <row r="57" spans="7:36" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G57" s="113"/>
       <c r="H57" s="88"/>
       <c r="I57" s="88"/>
@@ -7463,11 +7468,11 @@
       <c r="L57" s="88"/>
       <c r="M57" s="88"/>
       <c r="N57" s="88"/>
-      <c r="O57" s="159" t="s">
+      <c r="O57" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="P57" s="160"/>
-      <c r="Q57" s="180"/>
+      <c r="P57" s="229"/>
+      <c r="Q57" s="243"/>
       <c r="V57" s="113"/>
       <c r="W57" s="88"/>
       <c r="X57" s="88"/>
@@ -7480,13 +7485,13 @@
       <c r="AE57" s="88"/>
       <c r="AF57" s="88"/>
       <c r="AG57" s="88"/>
-      <c r="AH57" s="159" t="s">
+      <c r="AH57" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="AI57" s="160"/>
-      <c r="AJ57" s="161"/>
-    </row>
-    <row r="58" spans="7:36" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AI57" s="229"/>
+      <c r="AJ57" s="230"/>
+    </row>
+    <row r="58" spans="7:36" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G58" s="114"/>
       <c r="H58" s="103"/>
       <c r="I58" s="103"/>
@@ -7495,9 +7500,9 @@
       <c r="L58" s="103"/>
       <c r="M58" s="103"/>
       <c r="N58" s="117"/>
-      <c r="O58" s="181"/>
-      <c r="P58" s="182"/>
-      <c r="Q58" s="183"/>
+      <c r="O58" s="244"/>
+      <c r="P58" s="245"/>
+      <c r="Q58" s="246"/>
       <c r="V58" s="114"/>
       <c r="W58" s="103"/>
       <c r="X58" s="103"/>
@@ -7510,46 +7515,64 @@
       <c r="AE58" s="103"/>
       <c r="AF58" s="103"/>
       <c r="AG58" s="103"/>
-      <c r="AH58" s="162"/>
-      <c r="AI58" s="163"/>
-      <c r="AJ58" s="164"/>
-    </row>
-    <row r="59" spans="7:36" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="7:36" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="7:36" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="7:36" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="7:36" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="7:36" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AH58" s="231"/>
+      <c r="AI58" s="232"/>
+      <c r="AJ58" s="233"/>
+    </row>
+    <row r="59" spans="7:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="7:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="7:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="7:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="7:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="7:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="O54:Q55"/>
+    <mergeCell ref="J51:N52"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="AD54:AF55"/>
+    <mergeCell ref="Y53:AG53"/>
+    <mergeCell ref="AH54:AJ55"/>
+    <mergeCell ref="AH57:AJ58"/>
+    <mergeCell ref="B34:AK34"/>
+    <mergeCell ref="C35:D43"/>
+    <mergeCell ref="V48:Y49"/>
+    <mergeCell ref="N48:Q49"/>
+    <mergeCell ref="O57:Q58"/>
+    <mergeCell ref="V54:X55"/>
+    <mergeCell ref="Z54:AB55"/>
+    <mergeCell ref="Y51:AG52"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="K54:M55"/>
+    <mergeCell ref="G54:I55"/>
     <mergeCell ref="Y5:AL5"/>
     <mergeCell ref="H37:AE37"/>
     <mergeCell ref="C20:C25"/>
@@ -7566,25 +7589,8 @@
     <mergeCell ref="AI35:AJ43"/>
     <mergeCell ref="I38:AD40"/>
     <mergeCell ref="AA16:AJ17"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="AD54:AF55"/>
-    <mergeCell ref="Y53:AG53"/>
-    <mergeCell ref="AH54:AJ55"/>
-    <mergeCell ref="AH57:AJ58"/>
-    <mergeCell ref="B34:AK34"/>
-    <mergeCell ref="C35:D43"/>
-    <mergeCell ref="V48:Y49"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="O57:Q58"/>
-    <mergeCell ref="V54:X55"/>
-    <mergeCell ref="Z54:AB55"/>
-    <mergeCell ref="Y51:AG52"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="K54:M55"/>
-    <mergeCell ref="G54:I55"/>
-    <mergeCell ref="O54:Q55"/>
-    <mergeCell ref="J51:N52"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -7600,47 +7606,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286A040C-DE79-164D-AC04-1578493D3B6C}">
   <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="125" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="142" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="144"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="150"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="130" t="s">
         <v>48</v>
       </c>
@@ -7672,8 +7678,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="267" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="146" t="s">
         <v>128</v>
       </c>
       <c r="C12" s="15">
@@ -7704,8 +7710,8 @@
         <v>629200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="267" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="146" t="s">
         <v>129</v>
       </c>
       <c r="C13" s="15">
@@ -7736,8 +7742,8 @@
         <v>691600</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="267" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="146" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="15">
@@ -7768,8 +7774,8 @@
         <v>754000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="268" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="147" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="16">
@@ -7800,7 +7806,7 @@
         <v>842400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -7811,7 +7817,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -7822,21 +7828,21 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="142" t="s">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B18" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="144"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="150"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="130" t="s">
         <v>48</v>
       </c>
@@ -7868,8 +7874,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="267" t="s">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B20" s="146" t="s">
         <v>128</v>
       </c>
       <c r="C20" s="138">
@@ -7920,8 +7926,8 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="267" t="s">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B21" s="146" t="s">
         <v>129</v>
       </c>
       <c r="C21" s="138">
@@ -7975,8 +7981,8 @@
         <v>27040000</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B22" s="267" t="s">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B22" s="146" t="s">
         <v>130</v>
       </c>
       <c r="C22" s="138">
@@ -8027,8 +8033,8 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B23" s="268" t="s">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B23" s="147" t="s">
         <v>131</v>
       </c>
       <c r="C23" s="139">
@@ -8059,7 +8065,7 @@
         <v>7802.9994232987101</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8070,7 +8076,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -8081,21 +8087,21 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B26" s="142" t="s">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B26" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="144"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="150"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27" s="130" t="s">
         <v>48</v>
       </c>
@@ -8127,8 +8133,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B28" s="267" t="s">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B28" s="146" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="15">
@@ -8159,8 +8165,8 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B29" s="267" t="s">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B29" s="146" t="s">
         <v>129</v>
       </c>
       <c r="C29" s="15">
@@ -8191,8 +8197,8 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B30" s="267" t="s">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B30" s="146" t="s">
         <v>130</v>
       </c>
       <c r="C30" s="15">
@@ -8223,8 +8229,8 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B31" s="268" t="s">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B31" s="147" t="s">
         <v>131</v>
       </c>
       <c r="C31" s="16">
@@ -8255,21 +8261,21 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="142" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="144"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="150"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="130" t="s">
         <v>48</v>
       </c>
@@ -8301,30 +8307,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="267" t="s">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="146" t="s">
         <v>128</v>
       </c>
       <c r="C36" s="31">
         <v>0.15</v>
       </c>
-      <c r="D36" s="269">
+      <c r="D36" s="29">
         <v>0.2</v>
       </c>
-      <c r="E36" s="269">
+      <c r="E36" s="29">
         <v>0.2</v>
       </c>
-      <c r="F36" s="269">
+      <c r="F36" s="29">
         <v>0.12</v>
       </c>
-      <c r="G36" s="269">
+      <c r="G36" s="29">
         <v>0.18</v>
       </c>
-      <c r="H36" s="269">
+      <c r="H36" s="29">
         <v>0.25</v>
       </c>
-      <c r="I36" s="270"/>
-      <c r="J36" s="269">
+      <c r="I36" s="5"/>
+      <c r="J36" s="29">
         <v>0.08</v>
       </c>
       <c r="K36" s="30">
@@ -8332,8 +8338,8 @@
         <v>0.16857142857142859</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="267" t="s">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="146" t="s">
         <v>129</v>
       </c>
       <c r="C37" s="31">
@@ -8365,8 +8371,8 @@
         <v>0.16625000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="267" t="s">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="146" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="31">
@@ -8398,8 +8404,8 @@
         <v>0.16625000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="268" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="147" t="s">
         <v>131</v>
       </c>
       <c r="C39" s="31">
@@ -8431,8 +8437,8 @@
         <v>0.16625000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="268">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="147">
         <v>2029</v>
       </c>
       <c r="C40" s="32">
@@ -8464,18 +8470,18 @@
         <v>0.16625000000000001</v>
       </c>
     </row>
-    <row r="58" spans="15:21" x14ac:dyDescent="0.2">
-      <c r="O58" s="142" t="s">
+    <row r="58" spans="15:21" x14ac:dyDescent="0.3">
+      <c r="O58" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="P58" s="143"/>
-      <c r="Q58" s="143"/>
-      <c r="R58" s="143"/>
-      <c r="S58" s="143"/>
-      <c r="T58" s="143"/>
-      <c r="U58" s="144"/>
-    </row>
-    <row r="59" spans="15:21" x14ac:dyDescent="0.2">
+      <c r="P58" s="149"/>
+      <c r="Q58" s="149"/>
+      <c r="R58" s="149"/>
+      <c r="S58" s="149"/>
+      <c r="T58" s="149"/>
+      <c r="U58" s="150"/>
+    </row>
+    <row r="59" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O59" s="22" t="s">
         <v>48</v>
       </c>
@@ -8498,7 +8504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O60" s="130">
         <v>2025</v>
       </c>
@@ -8522,7 +8528,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="61" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -8530,7 +8536,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -8538,18 +8544,18 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="15:21" x14ac:dyDescent="0.2">
-      <c r="O63" s="142" t="s">
+    <row r="63" spans="15:21" x14ac:dyDescent="0.3">
+      <c r="O63" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="P63" s="143"/>
-      <c r="Q63" s="143"/>
-      <c r="R63" s="143"/>
-      <c r="S63" s="143"/>
-      <c r="T63" s="143"/>
-      <c r="U63" s="144"/>
-    </row>
-    <row r="64" spans="15:21" x14ac:dyDescent="0.2">
+      <c r="P63" s="149"/>
+      <c r="Q63" s="149"/>
+      <c r="R63" s="149"/>
+      <c r="S63" s="149"/>
+      <c r="T63" s="149"/>
+      <c r="U63" s="150"/>
+    </row>
+    <row r="64" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O64" s="22" t="s">
         <v>48</v>
       </c>
@@ -8572,7 +8578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O65" s="130">
         <v>2025</v>
       </c>
@@ -8595,16 +8601,16 @@
         <v>447</v>
       </c>
     </row>
-    <row r="68" spans="15:21" x14ac:dyDescent="0.2">
-      <c r="O68" s="142"/>
-      <c r="P68" s="143"/>
-      <c r="Q68" s="143"/>
-      <c r="R68" s="143"/>
-      <c r="S68" s="143"/>
-      <c r="T68" s="143"/>
-      <c r="U68" s="144"/>
-    </row>
-    <row r="69" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="15:21" x14ac:dyDescent="0.3">
+      <c r="O68" s="148"/>
+      <c r="P68" s="149"/>
+      <c r="Q68" s="149"/>
+      <c r="R68" s="149"/>
+      <c r="S68" s="149"/>
+      <c r="T68" s="149"/>
+      <c r="U68" s="150"/>
+    </row>
+    <row r="69" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O69" s="22" t="s">
         <v>48</v>
       </c>
@@ -8627,7 +8633,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O70" s="24">
         <v>2025</v>
       </c>
@@ -8656,7 +8662,7 @@
         <v>8076.923076923078</v>
       </c>
     </row>
-    <row r="71" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -8664,18 +8670,18 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="15:21" x14ac:dyDescent="0.2">
-      <c r="O72" s="142" t="s">
+    <row r="72" spans="15:21" x14ac:dyDescent="0.3">
+      <c r="O72" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="P72" s="143"/>
-      <c r="Q72" s="143"/>
-      <c r="R72" s="143"/>
-      <c r="S72" s="143"/>
-      <c r="T72" s="143"/>
-      <c r="U72" s="144"/>
-    </row>
-    <row r="73" spans="15:21" x14ac:dyDescent="0.2">
+      <c r="P72" s="149"/>
+      <c r="Q72" s="149"/>
+      <c r="R72" s="149"/>
+      <c r="S72" s="149"/>
+      <c r="T72" s="149"/>
+      <c r="U72" s="150"/>
+    </row>
+    <row r="73" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O73" s="22" t="s">
         <v>48</v>
       </c>
@@ -8698,7 +8704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O74" s="130">
         <v>2025</v>
       </c>
@@ -8733,6 +8739,7 @@
     <mergeCell ref="O63:U63"/>
     <mergeCell ref="O68:U68"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8741,78 +8748,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F855C5-4FE8-D141-8188-91EE04E8EAFB}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="125" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="126"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="153"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="264" t="s">
+      <c r="D11" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="264" t="s">
+      <c r="F11" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="264" t="s">
+      <c r="G11" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="264" t="s">
+      <c r="H11" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="264" t="s">
+      <c r="I11" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="265" t="s">
+      <c r="J11" s="144" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -8837,7 +8844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -8858,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -8881,7 +8888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
@@ -8900,7 +8907,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -8921,7 +8928,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -8940,7 +8947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -8961,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
@@ -8982,7 +8989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
@@ -9003,7 +9010,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
@@ -9024,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
@@ -9045,7 +9052,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
@@ -9066,7 +9073,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
@@ -9087,7 +9094,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
@@ -9110,7 +9117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
@@ -9129,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
@@ -9146,7 +9153,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -9169,7 +9176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
@@ -9192,7 +9199,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>18</v>
       </c>
@@ -9215,7 +9222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
@@ -9240,6 +9247,7 @@
   <mergeCells count="1">
     <mergeCell ref="C10:J10"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>